--- a/state_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
+++ b/state_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U289"/>
+  <dimension ref="A1:U310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>2.78762932893588</v>
+        <v>2.78843071634892</v>
       </c>
       <c r="H2" t="n">
         <v>6.3</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0148395185649743</v>
+        <v>0.014842413139907</v>
       </c>
       <c r="H3" t="n">
         <v>0.198</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0148395185649743</v>
+        <v>0.014842413139907</v>
       </c>
       <c r="H4" t="n">
         <v>0.198</v>
@@ -813,7 +813,7 @@
         <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>238.316666329484</v>
+        <v>238.319376154715</v>
       </c>
       <c r="H5" t="n">
         <v>6500</v>
@@ -898,7 +898,7 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>238.316666329484</v>
+        <v>238.319376154715</v>
       </c>
       <c r="H6" t="n">
         <v>6500</v>
@@ -983,7 +983,7 @@
         <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>238.316666329484</v>
+        <v>238.319376154715</v>
       </c>
       <c r="H7" t="n">
         <v>6500</v>
@@ -1068,7 +1068,7 @@
         <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>238.316666329484</v>
+        <v>238.319376154715</v>
       </c>
       <c r="H8" t="n">
         <v>6500</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00039</v>
+        <v>0.00037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0229798706074069</v>
+        <v>0.0229688403122193</v>
       </c>
       <c r="H9" t="n">
         <v>0.72027972027972</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00039</v>
+        <v>0.00037</v>
       </c>
       <c r="M9" t="n">
         <v>0.00506</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00039</v>
+        <v>0.00037</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0229798706074069</v>
+        <v>0.0229688403122193</v>
       </c>
       <c r="H10" t="n">
         <v>0.72027972027972</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00039</v>
+        <v>0.00037</v>
       </c>
       <c r="M10" t="n">
         <v>0.00506</v>
@@ -1315,7 +1315,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0686512399683368</v>
+        <v>0.06868000643004731</v>
       </c>
       <c r="H11" t="n">
         <v>0.16</v>
@@ -1396,7 +1396,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0686512399683368</v>
+        <v>0.06868000643004731</v>
       </c>
       <c r="H12" t="n">
         <v>0.16</v>
@@ -1473,13 +1473,13 @@
         <v>0.0825</v>
       </c>
       <c r="G13" t="n">
-        <v>0.133596111317572</v>
+        <v>0.133599697682746</v>
       </c>
       <c r="H13" t="n">
         <v>2.14</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1581</v>
+        <v>0.15825</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
         <v>0.11876</v>
       </c>
       <c r="N13" t="n">
-        <v>0.13934</v>
+        <v>0.13965</v>
       </c>
       <c r="O13" t="n">
         <v>1797584</v>
@@ -1550,13 +1550,13 @@
         <v>0.0825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.133596111317572</v>
+        <v>0.133599697682746</v>
       </c>
       <c r="H14" t="n">
         <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1581</v>
+        <v>0.15825</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
         <v>0.11876</v>
       </c>
       <c r="N14" t="n">
-        <v>0.13934</v>
+        <v>0.13965</v>
       </c>
       <c r="O14" t="n">
         <v>1797584</v>
@@ -1631,7 +1631,7 @@
         <v>0.01</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0166009421837187</v>
+        <v>0.0166024056649698</v>
       </c>
       <c r="H15" t="n">
         <v>0.198</v>
@@ -1712,7 +1712,7 @@
         <v>0.01</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0166009421837187</v>
+        <v>0.0166024056649698</v>
       </c>
       <c r="H16" t="n">
         <v>0.198</v>
@@ -1793,7 +1793,7 @@
         <v>67.5</v>
       </c>
       <c r="G17" t="n">
-        <v>286.249536653023</v>
+        <v>286.25262284287</v>
       </c>
       <c r="H17" t="n">
         <v>6500</v>
@@ -1878,7 +1878,7 @@
         <v>67.5</v>
       </c>
       <c r="G18" t="n">
-        <v>286.249536653023</v>
+        <v>286.25262284287</v>
       </c>
       <c r="H18" t="n">
         <v>6500</v>
@@ -1963,7 +1963,7 @@
         <v>67.5</v>
       </c>
       <c r="G19" t="n">
-        <v>286.249536653023</v>
+        <v>286.25262284287</v>
       </c>
       <c r="H19" t="n">
         <v>6500</v>
@@ -2048,7 +2048,7 @@
         <v>67.5</v>
       </c>
       <c r="G20" t="n">
-        <v>286.249536653023</v>
+        <v>286.25262284287</v>
       </c>
       <c r="H20" t="n">
         <v>6500</v>
@@ -2126,16 +2126,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.076</v>
+        <v>0.0765</v>
       </c>
       <c r="G21" t="n">
-        <v>0.140931728439547</v>
+        <v>0.140945410701827</v>
       </c>
       <c r="H21" t="n">
         <v>2.14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.16385</v>
+        <v>0.16388</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2146,7 +2146,7 @@
         <v>0.12115</v>
       </c>
       <c r="N21" t="n">
-        <v>0.14246</v>
+        <v>0.14295</v>
       </c>
       <c r="O21" t="n">
         <v>1797584</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.076</v>
+        <v>0.0765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.140931728439547</v>
+        <v>0.140945410701827</v>
       </c>
       <c r="H22" t="n">
         <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.16385</v>
+        <v>0.16388</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2223,7 +2223,7 @@
         <v>0.12115</v>
       </c>
       <c r="N22" t="n">
-        <v>0.14246</v>
+        <v>0.14295</v>
       </c>
       <c r="O22" t="n">
         <v>1797584</v>
@@ -2287,13 +2287,13 @@
         <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>3.53370027425392</v>
+        <v>3.54549686875511</v>
       </c>
       <c r="H23" t="n">
-        <v>8.38716098458467</v>
+        <v>8.91131081363373</v>
       </c>
       <c r="I23" t="n">
-        <v>7.66673</v>
+        <v>7.62696</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
         <v>6.21</v>
       </c>
       <c r="N23" t="n">
-        <v>7.10004</v>
+        <v>7.07618</v>
       </c>
       <c r="O23" t="n">
         <v>1797584</v>
@@ -2368,7 +2368,7 @@
         <v>0.00975</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0143245049451257</v>
+        <v>0.0143255851336682</v>
       </c>
       <c r="H24" t="n">
         <v>0.198</v>
@@ -2449,7 +2449,7 @@
         <v>0.00975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0143245049451257</v>
+        <v>0.0143255851336682</v>
       </c>
       <c r="H25" t="n">
         <v>0.198</v>
@@ -2530,7 +2530,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>278.552836585294</v>
+        <v>278.55520047539</v>
       </c>
       <c r="H26" t="n">
         <v>6500</v>
@@ -2615,7 +2615,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>278.552836585294</v>
+        <v>278.55520047539</v>
       </c>
       <c r="H27" t="n">
         <v>6500</v>
@@ -2700,7 +2700,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>278.552836585294</v>
+        <v>278.55520047539</v>
       </c>
       <c r="H28" t="n">
         <v>6500</v>
@@ -2785,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>278.552836585294</v>
+        <v>278.55520047539</v>
       </c>
       <c r="H29" t="n">
         <v>6500</v>
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.00047</v>
+        <v>0.00045</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0224079128768377</v>
+        <v>0.0223917241592168</v>
       </c>
       <c r="H30" t="n">
         <v>0.72027972027972</v>
@@ -2881,10 +2881,10 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.00057</v>
+        <v>0.00055</v>
       </c>
       <c r="M30" t="n">
-        <v>0.003</v>
+        <v>0.00299</v>
       </c>
       <c r="N30" t="n">
         <v>0.03198</v>
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.00047</v>
+        <v>0.00045</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0224079128768377</v>
+        <v>0.0223917241592168</v>
       </c>
       <c r="H31" t="n">
         <v>0.72027972027972</v>
@@ -2962,10 +2962,10 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.00057</v>
+        <v>0.00055</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003</v>
+        <v>0.00299</v>
       </c>
       <c r="N31" t="n">
         <v>0.03198</v>
@@ -3028,13 +3028,13 @@
         <v>0.075</v>
       </c>
       <c r="G32" t="n">
-        <v>0.120656935290478</v>
+        <v>0.120617643291542</v>
       </c>
       <c r="H32" t="n">
         <v>2.14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1512</v>
+        <v>0.1515</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3042,10 +3042,10 @@
         <v>0.06</v>
       </c>
       <c r="M32" t="n">
-        <v>0.11936</v>
+        <v>0.11904</v>
       </c>
       <c r="N32" t="n">
-        <v>0.13598</v>
+        <v>0.13605</v>
       </c>
       <c r="O32" t="n">
         <v>1797584</v>
@@ -3105,13 +3105,13 @@
         <v>0.075</v>
       </c>
       <c r="G33" t="n">
-        <v>0.120656935290478</v>
+        <v>0.120617643291542</v>
       </c>
       <c r="H33" t="n">
         <v>2.14</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1512</v>
+        <v>0.1515</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -3119,10 +3119,10 @@
         <v>0.06</v>
       </c>
       <c r="M33" t="n">
-        <v>0.11936</v>
+        <v>0.11904</v>
       </c>
       <c r="N33" t="n">
-        <v>0.13598</v>
+        <v>0.13605</v>
       </c>
       <c r="O33" t="n">
         <v>1797584</v>
@@ -3183,27 +3183,27 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.635</v>
+        <v>3.885</v>
       </c>
       <c r="G34" t="n">
-        <v>4.10276064790206</v>
+        <v>4.08958079417684</v>
       </c>
       <c r="H34" t="n">
-        <v>10.7997333040931</v>
+        <v>12.4162929210405</v>
       </c>
       <c r="I34" t="n">
-        <v>8.34844</v>
+        <v>7.92539</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="M34" t="n">
-        <v>7</v>
+        <v>6.762</v>
       </c>
       <c r="N34" t="n">
-        <v>7.56008</v>
+        <v>7.08633</v>
       </c>
       <c r="O34" t="n">
         <v>1797584</v>
@@ -3267,7 +3267,7 @@
         <v>0.00925</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0133359071529403</v>
+        <v>0.0133370106334614</v>
       </c>
       <c r="H35" t="n">
         <v>0.198</v>
@@ -3348,7 +3348,7 @@
         <v>0.00925</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0133359071529403</v>
+        <v>0.0133370106334614</v>
       </c>
       <c r="H36" t="n">
         <v>0.198</v>
@@ -3429,7 +3429,7 @@
         <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>247.667366255477</v>
+        <v>247.66864518479</v>
       </c>
       <c r="H37" t="n">
         <v>6500</v>
@@ -3514,7 +3514,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>247.667366255477</v>
+        <v>247.66864518479</v>
       </c>
       <c r="H38" t="n">
         <v>6500</v>
@@ -3599,7 +3599,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>247.667366255477</v>
+        <v>247.66864518479</v>
       </c>
       <c r="H39" t="n">
         <v>6500</v>
@@ -3684,7 +3684,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="n">
-        <v>247.667366255477</v>
+        <v>247.66864518479</v>
       </c>
       <c r="H40" t="n">
         <v>6500</v>
@@ -3766,10 +3766,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.00074</v>
+        <v>0.00071</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0176743085152065</v>
+        <v>0.0176595519937677</v>
       </c>
       <c r="H41" t="n">
         <v>0.72027972027972</v>
@@ -3780,7 +3780,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00065</v>
+        <v>0.00062</v>
       </c>
       <c r="M41" t="n">
         <v>0.00294</v>
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.00074</v>
+        <v>0.00071</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0176743085152065</v>
+        <v>0.0176595519937677</v>
       </c>
       <c r="H42" t="n">
         <v>0.72027972027972</v>
@@ -3861,7 +3861,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00065</v>
+        <v>0.00062</v>
       </c>
       <c r="M42" t="n">
         <v>0.00294</v>
@@ -3931,7 +3931,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0698826519685745</v>
+        <v>0.0698861791165576</v>
       </c>
       <c r="H43" t="n">
         <v>0.16</v>
@@ -4012,7 +4012,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0698826519685745</v>
+        <v>0.0698861791165576</v>
       </c>
       <c r="H44" t="n">
         <v>0.16</v>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07025000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.108788727448149</v>
+        <v>0.108748907745273</v>
       </c>
       <c r="H45" t="n">
         <v>2.14</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1406</v>
+        <v>0.141</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -4103,10 +4103,10 @@
         <v>0.06</v>
       </c>
       <c r="M45" t="n">
-        <v>0.11628</v>
+        <v>0.11612</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1309</v>
+        <v>0.13049</v>
       </c>
       <c r="O45" t="n">
         <v>1797584</v>
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07025000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>0.108788727448149</v>
+        <v>0.108748907745273</v>
       </c>
       <c r="H46" t="n">
         <v>2.14</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1406</v>
+        <v>0.141</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4180,10 +4180,10 @@
         <v>0.06</v>
       </c>
       <c r="M46" t="n">
-        <v>0.11628</v>
+        <v>0.11612</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1309</v>
+        <v>0.13049</v>
       </c>
       <c r="O46" t="n">
         <v>1797584</v>
@@ -4244,27 +4244,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.32</v>
+        <v>4.4</v>
       </c>
       <c r="G47" t="n">
-        <v>4.65402029302149</v>
+        <v>4.61783848366264</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>12.4162929210405</v>
       </c>
       <c r="I47" t="n">
-        <v>10.3882</v>
+        <v>10.6867</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>4.32</v>
       </c>
       <c r="M47" t="n">
-        <v>7.16339</v>
+        <v>7</v>
       </c>
       <c r="N47" t="n">
-        <v>8.44956</v>
+        <v>8.236940000000001</v>
       </c>
       <c r="O47" t="n">
         <v>1797584</v>
@@ -4328,7 +4328,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0088329403353558</v>
+        <v>0.0088337392167231</v>
       </c>
       <c r="H48" t="n">
         <v>0.018</v>
@@ -4409,7 +4409,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0088329403353558</v>
+        <v>0.0088337392167231</v>
       </c>
       <c r="H49" t="n">
         <v>0.018</v>
@@ -4490,7 +4490,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="n">
-        <v>281.185884773996</v>
+        <v>281.187163703309</v>
       </c>
       <c r="H50" t="n">
         <v>6500</v>
@@ -4575,7 +4575,7 @@
         <v>41</v>
       </c>
       <c r="G51" t="n">
-        <v>281.185884773996</v>
+        <v>281.187163703309</v>
       </c>
       <c r="H51" t="n">
         <v>6500</v>
@@ -4660,7 +4660,7 @@
         <v>41</v>
       </c>
       <c r="G52" t="n">
-        <v>281.185884773996</v>
+        <v>281.187163703309</v>
       </c>
       <c r="H52" t="n">
         <v>6500</v>
@@ -4745,7 +4745,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="n">
-        <v>281.185884773996</v>
+        <v>281.187163703309</v>
       </c>
       <c r="H53" t="n">
         <v>6500</v>
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.00094</v>
+        <v>0.00092</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0043546609026551</v>
+        <v>0.0043375442720728</v>
       </c>
       <c r="H54" t="n">
         <v>0.07000000000000001</v>
@@ -4841,7 +4841,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.00098</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M54" t="n">
         <v>0.00347</v>
@@ -4908,10 +4908,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.00094</v>
+        <v>0.00092</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0043546609026551</v>
+        <v>0.0043375442720728</v>
       </c>
       <c r="H55" t="n">
         <v>0.07000000000000001</v>
@@ -4922,7 +4922,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00098</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M55" t="n">
         <v>0.00347</v>
@@ -4992,7 +4992,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0702544233589476</v>
+        <v>0.0702536477755923</v>
       </c>
       <c r="H56" t="n">
         <v>0.16</v>
@@ -5073,7 +5073,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0702544233589476</v>
+        <v>0.0702536477755923</v>
       </c>
       <c r="H57" t="n">
         <v>0.16</v>
@@ -5147,16 +5147,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.065</v>
+        <v>0.0655</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0713464388995203</v>
+        <v>0.07131728308311309</v>
       </c>
       <c r="H58" t="n">
         <v>0.165</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1406</v>
+        <v>0.141</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5167,7 +5167,7 @@
         <v>0.115</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1309</v>
+        <v>0.13049</v>
       </c>
       <c r="O58" t="n">
         <v>1797584</v>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.065</v>
+        <v>0.0655</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0713464388995203</v>
+        <v>0.07131728308311309</v>
       </c>
       <c r="H59" t="n">
         <v>0.165</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1406</v>
+        <v>0.141</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5244,7 +5244,7 @@
         <v>0.115</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1309</v>
+        <v>0.13049</v>
       </c>
       <c r="O59" t="n">
         <v>1797584</v>
@@ -5304,7 +5304,7 @@
         <v>0.13</v>
       </c>
       <c r="G60" t="n">
-        <v>0.194214123812327</v>
+        <v>0.194191062994445</v>
       </c>
       <c r="H60" t="n">
         <v>3.21</v>
@@ -5381,7 +5381,7 @@
         <v>0.13</v>
       </c>
       <c r="G61" t="n">
-        <v>0.194214123812327</v>
+        <v>0.194191062994445</v>
       </c>
       <c r="H61" t="n">
         <v>3.21</v>
@@ -5458,7 +5458,7 @@
         <v>0.014</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0527426912152223</v>
+        <v>0.0527498862317279</v>
       </c>
       <c r="H62" t="n">
         <v>1.56</v>
@@ -5535,7 +5535,7 @@
         <v>0.014</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0527426912152223</v>
+        <v>0.0527498862317279</v>
       </c>
       <c r="H63" t="n">
         <v>1.56</v>
@@ -5616,13 +5616,13 @@
         <v>4.85</v>
       </c>
       <c r="G64" t="n">
-        <v>4.94501093169355</v>
+        <v>4.85540256119588</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>12.4162929210405</v>
       </c>
       <c r="I64" t="n">
-        <v>10.3882</v>
+        <v>10.6867</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5630,10 +5630,10 @@
         <v>5.7</v>
       </c>
       <c r="M64" t="n">
-        <v>7.31639</v>
+        <v>7</v>
       </c>
       <c r="N64" t="n">
-        <v>8.44956</v>
+        <v>8.236940000000001</v>
       </c>
       <c r="O64" t="n">
         <v>1797584</v>
@@ -5697,7 +5697,7 @@
         <v>0.008</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008578312104328099</v>
+        <v>0.008578749017883899</v>
       </c>
       <c r="H65" t="n">
         <v>0.018</v>
@@ -5778,7 +5778,7 @@
         <v>0.008</v>
       </c>
       <c r="G66" t="n">
-        <v>0.008578312104328099</v>
+        <v>0.008578749017883899</v>
       </c>
       <c r="H66" t="n">
         <v>0.018</v>
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.00137</v>
+        <v>0.00135</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0055719699672795</v>
+        <v>0.0055561599606665</v>
       </c>
       <c r="H72" t="n">
         <v>0.07000000000000001</v>
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.00137</v>
+        <v>0.00135</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0055719699672795</v>
+        <v>0.0055561599606665</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
@@ -6438,7 +6438,7 @@
         <v>0.0565</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0576294233589476</v>
+        <v>0.0576286477755923</v>
       </c>
       <c r="H74" t="n">
         <v>0.123</v>
@@ -6519,7 +6519,7 @@
         <v>0.0565</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0576294233589476</v>
+        <v>0.0576286477755923</v>
       </c>
       <c r="H75" t="n">
         <v>0.123</v>
@@ -6596,13 +6596,13 @@
         <v>0.06</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0634390314921129</v>
+        <v>0.0634098756757057</v>
       </c>
       <c r="H76" t="n">
         <v>0.148</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1278</v>
+        <v>0.1273</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -6613,7 +6613,7 @@
         <v>0.10432</v>
       </c>
       <c r="N76" t="n">
-        <v>0.11654</v>
+        <v>0.11645</v>
       </c>
       <c r="O76" t="n">
         <v>1797584</v>
@@ -6673,13 +6673,13 @@
         <v>0.06</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0634390314921129</v>
+        <v>0.0634098756757057</v>
       </c>
       <c r="H77" t="n">
         <v>0.148</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1278</v>
+        <v>0.1273</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -6690,7 +6690,7 @@
         <v>0.10432</v>
       </c>
       <c r="N77" t="n">
-        <v>0.11654</v>
+        <v>0.11645</v>
       </c>
       <c r="O77" t="n">
         <v>1797584</v>
@@ -6750,7 +6750,7 @@
         <v>0.14</v>
       </c>
       <c r="G78" t="n">
-        <v>0.217345029912631</v>
+        <v>0.21732656382882</v>
       </c>
       <c r="H78" t="n">
         <v>3.21</v>
@@ -6827,7 +6827,7 @@
         <v>0.14</v>
       </c>
       <c r="G79" t="n">
-        <v>0.217345029912631</v>
+        <v>0.21732656382882</v>
       </c>
       <c r="H79" t="n">
         <v>3.21</v>
@@ -6904,7 +6904,7 @@
         <v>0.0135</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0593167652892964</v>
+        <v>0.059323960305802</v>
       </c>
       <c r="H80" t="n">
         <v>1.56</v>
@@ -6981,7 +6981,7 @@
         <v>0.0135</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0593167652892964</v>
+        <v>0.059323960305802</v>
       </c>
       <c r="H81" t="n">
         <v>1.56</v>
@@ -7140,16 +7140,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5.6</v>
+        <v>5.34751</v>
       </c>
       <c r="G83" t="n">
-        <v>5.05183820099677</v>
+        <v>4.95828545317222</v>
       </c>
       <c r="H83" t="n">
-        <v>11</v>
+        <v>12.4162929210405</v>
       </c>
       <c r="I83" t="n">
-        <v>10.07743</v>
+        <v>9.900040000000001</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="N83" t="n">
-        <v>8.226509999999999</v>
+        <v>7.30067</v>
       </c>
       <c r="O83" t="n">
         <v>1797584</v>
@@ -7224,7 +7224,7 @@
         <v>0.008</v>
       </c>
       <c r="G84" t="n">
-        <v>0.008647946671757899</v>
+        <v>0.0086483465587412</v>
       </c>
       <c r="H84" t="n">
         <v>0.018</v>
@@ -7305,7 +7305,7 @@
         <v>0.008</v>
       </c>
       <c r="G85" t="n">
-        <v>0.008647946671757899</v>
+        <v>0.0086483465587412</v>
       </c>
       <c r="H85" t="n">
         <v>0.018</v>
@@ -7800,10 +7800,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.00184</v>
+        <v>0.00183</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0053185612005361</v>
+        <v>0.0053056449369757</v>
       </c>
       <c r="H91" t="n">
         <v>0.07000000000000001</v>
@@ -7881,10 +7881,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.00184</v>
+        <v>0.00183</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0053185612005361</v>
+        <v>0.0053056449369757</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
@@ -7965,7 +7965,7 @@
         <v>0.055</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0557387634187824</v>
+        <v>0.0557381551181116</v>
       </c>
       <c r="H93" t="n">
         <v>0.123</v>
@@ -8046,7 +8046,7 @@
         <v>0.055</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0557387634187824</v>
+        <v>0.0557381551181116</v>
       </c>
       <c r="H94" t="n">
         <v>0.123</v>
@@ -8120,16 +8120,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.061</v>
+        <v>0.0614</v>
       </c>
       <c r="G95" t="n">
-        <v>0.06382555424701861</v>
+        <v>0.063797174347256</v>
       </c>
       <c r="H95" t="n">
         <v>0.148</v>
       </c>
       <c r="I95" t="n">
-        <v>0.12505</v>
+        <v>0.12455</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -8197,16 +8197,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.061</v>
+        <v>0.0614</v>
       </c>
       <c r="G96" t="n">
-        <v>0.06382555424701861</v>
+        <v>0.063797174347256</v>
       </c>
       <c r="H96" t="n">
         <v>0.148</v>
       </c>
       <c r="I96" t="n">
-        <v>0.12505</v>
+        <v>0.12455</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -8277,7 +8277,7 @@
         <v>0.13</v>
       </c>
       <c r="G97" t="n">
-        <v>0.208412052712459</v>
+        <v>0.208402370875166</v>
       </c>
       <c r="H97" t="n">
         <v>3.21</v>
@@ -8354,7 +8354,7 @@
         <v>0.13</v>
       </c>
       <c r="G98" t="n">
-        <v>0.208412052712459</v>
+        <v>0.208402370875166</v>
       </c>
       <c r="H98" t="n">
         <v>3.21</v>
@@ -8431,7 +8431,7 @@
         <v>0.012</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0547487593058601</v>
+        <v>0.0547539594490117</v>
       </c>
       <c r="H99" t="n">
         <v>1.56</v>
@@ -8508,7 +8508,7 @@
         <v>0.012</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0547487593058601</v>
+        <v>0.0547539594490117</v>
       </c>
       <c r="H100" t="n">
         <v>1.56</v>
@@ -8744,27 +8744,27 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G103" t="n">
-        <v>5.43429586758396</v>
+        <v>5.3641026895203</v>
       </c>
       <c r="H103" t="n">
-        <v>11</v>
+        <v>12.4162929210405</v>
       </c>
       <c r="I103" t="n">
-        <v>10.59941</v>
+        <v>10.57309</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>6.17992</v>
+        <v>6.03851</v>
       </c>
       <c r="M103" t="n">
-        <v>7.19881</v>
+        <v>7</v>
       </c>
       <c r="N103" t="n">
-        <v>8.91047</v>
+        <v>8.57873</v>
       </c>
       <c r="O103" t="n">
         <v>1797584</v>
@@ -8828,7 +8828,7 @@
         <v>0.008</v>
       </c>
       <c r="G104" t="n">
-        <v>0.008670480893895299</v>
+        <v>0.0086708741160955</v>
       </c>
       <c r="H104" t="n">
         <v>0.018</v>
@@ -8909,7 +8909,7 @@
         <v>0.008</v>
       </c>
       <c r="G105" t="n">
-        <v>0.008670480893895299</v>
+        <v>0.0086708741160955</v>
       </c>
       <c r="H105" t="n">
         <v>0.018</v>
@@ -9404,10 +9404,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00222</v>
+        <v>0.0022</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0040296189899453</v>
+        <v>0.0040200951136378</v>
       </c>
       <c r="H111" t="n">
         <v>0.0285859485962551</v>
@@ -9485,10 +9485,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00222</v>
+        <v>0.0022</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0040296189899453</v>
+        <v>0.0040200951136378</v>
       </c>
       <c r="H112" t="n">
         <v>0.0285859485962551</v>
@@ -9569,7 +9569,7 @@
         <v>0.0525</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0516679489059651</v>
+        <v>0.0516674318503948</v>
       </c>
       <c r="H113" t="n">
         <v>0.123</v>
@@ -9650,7 +9650,7 @@
         <v>0.0525</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0516679489059651</v>
+        <v>0.0516674318503948</v>
       </c>
       <c r="H114" t="n">
         <v>0.123</v>
@@ -9804,18 +9804,18 @@
         <v>0.06</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0602833333333333</v>
+        <v>0.06028</v>
       </c>
       <c r="H116" t="n">
         <v>0.148</v>
       </c>
       <c r="I116" t="n">
-        <v>0.12</v>
+        <v>0.12005</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.0325</v>
+        <v>0.0326</v>
       </c>
       <c r="M116" t="n">
         <v>0.104</v>
@@ -9881,18 +9881,18 @@
         <v>0.06</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0602833333333333</v>
+        <v>0.06028</v>
       </c>
       <c r="H117" t="n">
         <v>0.148</v>
       </c>
       <c r="I117" t="n">
-        <v>0.12</v>
+        <v>0.12005</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.0325</v>
+        <v>0.0326</v>
       </c>
       <c r="M117" t="n">
         <v>0.104</v>
@@ -10112,7 +10112,7 @@
         <v>0.011</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0204062799840958</v>
+        <v>0.0204113934581948</v>
       </c>
       <c r="H120" t="n">
         <v>0.449</v>
@@ -10189,7 +10189,7 @@
         <v>0.011</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0204062799840958</v>
+        <v>0.0204113934581948</v>
       </c>
       <c r="H121" t="n">
         <v>0.449</v>
@@ -10425,27 +10425,27 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6.05437</v>
+        <v>6.025</v>
       </c>
       <c r="G124" t="n">
-        <v>6.12031604093815</v>
+        <v>6.06967728244432</v>
       </c>
       <c r="H124" t="n">
-        <v>11.2</v>
+        <v>11.9015612168876</v>
       </c>
       <c r="I124" t="n">
-        <v>11.09</v>
+        <v>11.19</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>6.51406</v>
+        <v>6.6</v>
       </c>
       <c r="M124" t="n">
         <v>10.098</v>
       </c>
       <c r="N124" t="n">
-        <v>10.736</v>
+        <v>11.034</v>
       </c>
       <c r="O124" t="n">
         <v>1797584</v>
@@ -10509,7 +10509,7 @@
         <v>0.008</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0083436288353826</v>
+        <v>0.0083438653115647</v>
       </c>
       <c r="H125" t="n">
         <v>0.017</v>
@@ -10590,7 +10590,7 @@
         <v>0.008</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0083436288353826</v>
+        <v>0.0083438653115647</v>
       </c>
       <c r="H126" t="n">
         <v>0.017</v>
@@ -11088,7 +11088,7 @@
         <v>0.0019</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0042840541999347</v>
+        <v>0.0042697703402773</v>
       </c>
       <c r="H132" t="n">
         <v>0.0285859485962551</v>
@@ -11099,7 +11099,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.00299</v>
+        <v>0.00294</v>
       </c>
       <c r="M132" t="n">
         <v>0.00579</v>
@@ -11169,7 +11169,7 @@
         <v>0.0019</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0042840541999347</v>
+        <v>0.0042697703402773</v>
       </c>
       <c r="H133" t="n">
         <v>0.0285859485962551</v>
@@ -11180,7 +11180,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.00299</v>
+        <v>0.00294</v>
       </c>
       <c r="M133" t="n">
         <v>0.00579</v>
@@ -11250,7 +11250,7 @@
         <v>0.04605</v>
       </c>
       <c r="G134" t="n">
-        <v>0.048680072049307</v>
+        <v>0.0486817616446358</v>
       </c>
       <c r="H134" t="n">
         <v>0.1261</v>
@@ -11261,7 +11261,7 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>0.00615</v>
+        <v>0.00616</v>
       </c>
       <c r="M134" t="n">
         <v>0.09229999999999999</v>
@@ -11331,7 +11331,7 @@
         <v>0.04605</v>
       </c>
       <c r="G135" t="n">
-        <v>0.048680072049307</v>
+        <v>0.0486817616446358</v>
       </c>
       <c r="H135" t="n">
         <v>0.1261</v>
@@ -11342,7 +11342,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.00615</v>
+        <v>0.00616</v>
       </c>
       <c r="M135" t="n">
         <v>0.09229999999999999</v>
@@ -11482,16 +11482,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.049</v>
+        <v>0.04895</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0573451228786726</v>
+        <v>0.0573505931593026</v>
       </c>
       <c r="H137" t="n">
         <v>0.148</v>
       </c>
       <c r="I137" t="n">
-        <v>0.12</v>
+        <v>0.12005</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -11502,7 +11502,7 @@
         <v>0.1043</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1151</v>
+        <v>0.11507</v>
       </c>
       <c r="O137" t="n">
         <v>1797584</v>
@@ -11559,16 +11559,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.049</v>
+        <v>0.04895</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0573451228786726</v>
+        <v>0.0573505931593026</v>
       </c>
       <c r="H138" t="n">
         <v>0.148</v>
       </c>
       <c r="I138" t="n">
-        <v>0.12</v>
+        <v>0.12005</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11579,7 +11579,7 @@
         <v>0.1043</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1151</v>
+        <v>0.11507</v>
       </c>
       <c r="O138" t="n">
         <v>1797584</v>
@@ -11793,7 +11793,7 @@
         <v>0.01</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0193896133174291</v>
+        <v>0.0193947267915281</v>
       </c>
       <c r="H141" t="n">
         <v>0.449</v>
@@ -11870,7 +11870,7 @@
         <v>0.01</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0193896133174291</v>
+        <v>0.0193947267915281</v>
       </c>
       <c r="H142" t="n">
         <v>0.449</v>
@@ -12109,7 +12109,7 @@
         <v>6</v>
       </c>
       <c r="G145" t="n">
-        <v>5.83180220175592</v>
+        <v>5.80433294804276</v>
       </c>
       <c r="H145" t="n">
         <v>11.2</v>
@@ -12120,10 +12120,10 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>6.34151</v>
+        <v>6.47327</v>
       </c>
       <c r="M145" t="n">
-        <v>9.849</v>
+        <v>9.47513</v>
       </c>
       <c r="N145" t="n">
         <v>10.484</v>
@@ -12190,7 +12190,7 @@
         <v>0.008</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0082983109175454</v>
+        <v>0.008298391172016801</v>
       </c>
       <c r="H146" t="n">
         <v>0.016</v>
@@ -12271,7 +12271,7 @@
         <v>0.008</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0082983109175454</v>
+        <v>0.008298391172016801</v>
       </c>
       <c r="H147" t="n">
         <v>0.016</v>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.0017</v>
+        <v>0.00165</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0034649398588733</v>
+        <v>0.003444917740458</v>
       </c>
       <c r="H153" t="n">
         <v>0.0285859485962551</v>
@@ -12780,7 +12780,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
-        <v>0.00134</v>
+        <v>0.00129</v>
       </c>
       <c r="M153" t="n">
         <v>0.00473</v>
@@ -12847,10 +12847,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.0017</v>
+        <v>0.00165</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0034649398588733</v>
+        <v>0.003444917740458</v>
       </c>
       <c r="H154" t="n">
         <v>0.0285859485962551</v>
@@ -12861,7 +12861,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.00134</v>
+        <v>0.00129</v>
       </c>
       <c r="M154" t="n">
         <v>0.00473</v>
@@ -12931,7 +12931,7 @@
         <v>0.0473</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0473050165947259</v>
+        <v>0.0473067080560999</v>
       </c>
       <c r="H155" t="n">
         <v>0.1261</v>
@@ -12942,7 +12942,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.00562</v>
+        <v>0.00564</v>
       </c>
       <c r="M155" t="n">
         <v>0.08885999999999999</v>
@@ -13012,7 +13012,7 @@
         <v>0.0473</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0473050165947259</v>
+        <v>0.0473067080560999</v>
       </c>
       <c r="H156" t="n">
         <v>0.1261</v>
@@ -13023,7 +13023,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00562</v>
+        <v>0.00564</v>
       </c>
       <c r="M156" t="n">
         <v>0.08885999999999999</v>
@@ -13163,13 +13163,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.0545</v>
+        <v>0.0546</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0549335546072691</v>
+        <v>0.0549230732871462</v>
       </c>
       <c r="H158" t="n">
-        <v>0.127</v>
+        <v>0.1273</v>
       </c>
       <c r="I158" t="n">
         <v>0.116</v>
@@ -13177,13 +13177,13 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.01204</v>
+        <v>0.01169</v>
       </c>
       <c r="M158" t="n">
         <v>0.09950000000000001</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1127</v>
+        <v>0.11257</v>
       </c>
       <c r="O158" t="n">
         <v>1797584</v>
@@ -13240,13 +13240,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.0545</v>
+        <v>0.0546</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0549335546072691</v>
+        <v>0.0549230732871462</v>
       </c>
       <c r="H159" t="n">
-        <v>0.127</v>
+        <v>0.1273</v>
       </c>
       <c r="I159" t="n">
         <v>0.116</v>
@@ -13254,13 +13254,13 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.01204</v>
+        <v>0.01169</v>
       </c>
       <c r="M159" t="n">
         <v>0.09950000000000001</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1127</v>
+        <v>0.11257</v>
       </c>
       <c r="O159" t="n">
         <v>1797584</v>
@@ -13320,7 +13320,7 @@
         <v>0.112</v>
       </c>
       <c r="G160" t="n">
-        <v>0.162273478615826</v>
+        <v>0.162261793947665</v>
       </c>
       <c r="H160" t="n">
         <v>1.29</v>
@@ -13397,7 +13397,7 @@
         <v>0.112</v>
       </c>
       <c r="G161" t="n">
-        <v>0.162273478615826</v>
+        <v>0.162261793947665</v>
       </c>
       <c r="H161" t="n">
         <v>1.29</v>
@@ -13790,7 +13790,7 @@
         <v>6</v>
       </c>
       <c r="G166" t="n">
-        <v>5.60951002462966</v>
+        <v>5.6370282330403</v>
       </c>
       <c r="H166" t="n">
         <v>11.2</v>
@@ -13804,7 +13804,7 @@
         <v>6</v>
       </c>
       <c r="M166" t="n">
-        <v>9.849</v>
+        <v>9.47513</v>
       </c>
       <c r="N166" t="n">
         <v>10.484</v>
@@ -13871,7 +13871,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0086149775842121</v>
+        <v>0.008615057838683399</v>
       </c>
       <c r="H167" t="n">
         <v>0.014</v>
@@ -13952,7 +13952,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0086149775842121</v>
+        <v>0.008615057838683399</v>
       </c>
       <c r="H168" t="n">
         <v>0.014</v>
@@ -14447,10 +14447,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.00168</v>
+        <v>0.00164</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0026507584141548</v>
+        <v>0.0026234194950258</v>
       </c>
       <c r="H174" t="n">
         <v>0.0230768887441504</v>
@@ -14461,10 +14461,10 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.00134</v>
+        <v>0.00129</v>
       </c>
       <c r="M174" t="n">
-        <v>0.00324</v>
+        <v>0.00321</v>
       </c>
       <c r="N174" t="n">
         <v>0.005</v>
@@ -14528,10 +14528,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.00168</v>
+        <v>0.00164</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0026507584141548</v>
+        <v>0.0026234194950258</v>
       </c>
       <c r="H175" t="n">
         <v>0.0230768887441504</v>
@@ -14542,10 +14542,10 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.00134</v>
+        <v>0.00129</v>
       </c>
       <c r="M175" t="n">
-        <v>0.00324</v>
+        <v>0.00321</v>
       </c>
       <c r="N175" t="n">
         <v>0.005</v>
@@ -14612,7 +14612,7 @@
         <v>0.0473</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0496716832613926</v>
+        <v>0.0496733747227666</v>
       </c>
       <c r="H176" t="n">
         <v>0.133</v>
@@ -14693,7 +14693,7 @@
         <v>0.0473</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0496716832613926</v>
+        <v>0.0496733747227666</v>
       </c>
       <c r="H177" t="n">
         <v>0.133</v>
@@ -14844,21 +14844,21 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.0525</v>
+        <v>0.0526</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0564668879406025</v>
+        <v>0.0564564066204796</v>
       </c>
       <c r="H179" t="n">
         <v>0.145</v>
       </c>
       <c r="I179" t="n">
-        <v>0.1255</v>
+        <v>0.1257</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.01204</v>
+        <v>0.01169</v>
       </c>
       <c r="M179" t="n">
         <v>0.105</v>
@@ -14921,21 +14921,21 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.0525</v>
+        <v>0.0526</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0564668879406025</v>
+        <v>0.0564564066204796</v>
       </c>
       <c r="H180" t="n">
         <v>0.145</v>
       </c>
       <c r="I180" t="n">
-        <v>0.1255</v>
+        <v>0.1257</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.01204</v>
+        <v>0.01169</v>
       </c>
       <c r="M180" t="n">
         <v>0.105</v>
@@ -15001,7 +15001,7 @@
         <v>0.117</v>
       </c>
       <c r="G181" t="n">
-        <v>0.145590145282493</v>
+        <v>0.145578460614332</v>
       </c>
       <c r="H181" t="n">
         <v>1.29</v>
@@ -15078,7 +15078,7 @@
         <v>0.117</v>
       </c>
       <c r="G182" t="n">
-        <v>0.145590145282493</v>
+        <v>0.145578460614332</v>
       </c>
       <c r="H182" t="n">
         <v>1.29</v>
@@ -15471,7 +15471,7 @@
         <v>5.1</v>
       </c>
       <c r="G187" t="n">
-        <v>5.46574288460152</v>
+        <v>5.43955629804595</v>
       </c>
       <c r="H187" t="n">
         <v>11.2</v>
@@ -15485,7 +15485,7 @@
         <v>5.9</v>
       </c>
       <c r="M187" t="n">
-        <v>9.747</v>
+        <v>9.225390000000001</v>
       </c>
       <c r="N187" t="n">
         <v>10.452</v>
@@ -15552,7 +15552,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0085659518202299</v>
+        <v>0.0085660395003253</v>
       </c>
       <c r="H188" t="n">
         <v>0.014</v>
@@ -15633,7 +15633,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0085659518202299</v>
+        <v>0.0085660395003253</v>
       </c>
       <c r="H189" t="n">
         <v>0.014</v>
@@ -16128,10 +16128,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.00187</v>
+        <v>0.00181</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0029581570201301</v>
+        <v>0.0029228000344803</v>
       </c>
       <c r="H195" t="n">
         <v>0.0230768887441504</v>
@@ -16142,10 +16142,10 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>0.00176</v>
+        <v>0.00172</v>
       </c>
       <c r="M195" t="n">
-        <v>0.00385</v>
+        <v>0.00381</v>
       </c>
       <c r="N195" t="n">
         <v>0.00519</v>
@@ -16209,10 +16209,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00187</v>
+        <v>0.00181</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0029581570201301</v>
+        <v>0.0029228000344803</v>
       </c>
       <c r="H196" t="n">
         <v>0.0230768887441504</v>
@@ -16223,10 +16223,10 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>0.00176</v>
+        <v>0.00172</v>
       </c>
       <c r="M196" t="n">
-        <v>0.00385</v>
+        <v>0.00381</v>
       </c>
       <c r="N196" t="n">
         <v>0.00519</v>
@@ -16293,7 +16293,7 @@
         <v>0.04855</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0506966832613926</v>
+        <v>0.0506983747227666</v>
       </c>
       <c r="H197" t="n">
         <v>0.133</v>
@@ -16374,7 +16374,7 @@
         <v>0.04855</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0506966832613926</v>
+        <v>0.0506983747227666</v>
       </c>
       <c r="H198" t="n">
         <v>0.133</v>
@@ -16528,13 +16528,13 @@
         <v>0.055</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0576502212739358</v>
+        <v>0.0576247399538129</v>
       </c>
       <c r="H200" t="n">
         <v>0.145</v>
       </c>
       <c r="I200" t="n">
-        <v>0.131</v>
+        <v>0.13115</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -16545,7 +16545,7 @@
         <v>0.105</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1213</v>
+        <v>0.12137</v>
       </c>
       <c r="O200" t="n">
         <v>1797584</v>
@@ -16605,13 +16605,13 @@
         <v>0.055</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0576502212739358</v>
+        <v>0.0576247399538129</v>
       </c>
       <c r="H201" t="n">
         <v>0.145</v>
       </c>
       <c r="I201" t="n">
-        <v>0.131</v>
+        <v>0.13115</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -16622,7 +16622,7 @@
         <v>0.105</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1213</v>
+        <v>0.12137</v>
       </c>
       <c r="O201" t="n">
         <v>1797584</v>
@@ -16682,7 +16682,7 @@
         <v>0.12</v>
       </c>
       <c r="G202" t="n">
-        <v>0.146823478615826</v>
+        <v>0.146811793947665</v>
       </c>
       <c r="H202" t="n">
         <v>1.29</v>
@@ -16759,7 +16759,7 @@
         <v>0.12</v>
       </c>
       <c r="G203" t="n">
-        <v>0.146823478615826</v>
+        <v>0.146811793947665</v>
       </c>
       <c r="H203" t="n">
         <v>1.29</v>
@@ -17152,7 +17152,7 @@
         <v>4.455</v>
       </c>
       <c r="G208" t="n">
-        <v>4.87298813018153</v>
+        <v>4.8223379274997</v>
       </c>
       <c r="H208" t="n">
         <v>11.2</v>
@@ -17166,7 +17166,7 @@
         <v>4.6</v>
       </c>
       <c r="M208" t="n">
-        <v>7.34639</v>
+        <v>7.2944</v>
       </c>
       <c r="N208" t="n">
         <v>10.404</v>
@@ -17233,7 +17233,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0085992851535632</v>
+        <v>0.0085993728336587</v>
       </c>
       <c r="H209" t="n">
         <v>0.014</v>
@@ -17314,7 +17314,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0085992851535632</v>
+        <v>0.0085993728336587</v>
       </c>
       <c r="H210" t="n">
         <v>0.014</v>
@@ -17809,27 +17809,27 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00191</v>
+        <v>0.00185</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0032049077997014</v>
+        <v>0.0031688826212229</v>
       </c>
       <c r="H216" t="n">
         <v>0.0185394803121126</v>
       </c>
       <c r="I216" t="n">
-        <v>0.00671</v>
+        <v>0.0067</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.00197</v>
+        <v>0.00191</v>
       </c>
       <c r="M216" t="n">
-        <v>0.00427</v>
+        <v>0.00425</v>
       </c>
       <c r="N216" t="n">
-        <v>0.00656</v>
+        <v>0.00659</v>
       </c>
       <c r="O216" t="n">
         <v>1797584</v>
@@ -17890,27 +17890,27 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00191</v>
+        <v>0.00185</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0032049077997014</v>
+        <v>0.0031688826212229</v>
       </c>
       <c r="H217" t="n">
         <v>0.0185394803121126</v>
       </c>
       <c r="I217" t="n">
-        <v>0.00671</v>
+        <v>0.0067</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.00197</v>
+        <v>0.00191</v>
       </c>
       <c r="M217" t="n">
-        <v>0.00427</v>
+        <v>0.00425</v>
       </c>
       <c r="N217" t="n">
-        <v>0.00656</v>
+        <v>0.00659</v>
       </c>
       <c r="O217" t="n">
         <v>1797584</v>
@@ -17974,7 +17974,7 @@
         <v>0.0508</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0538756641490137</v>
+        <v>0.053876945070286</v>
       </c>
       <c r="H218" t="n">
         <v>0.133</v>
@@ -18055,7 +18055,7 @@
         <v>0.0508</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0538756641490137</v>
+        <v>0.053876945070286</v>
       </c>
       <c r="H219" t="n">
         <v>0.133</v>
@@ -18209,13 +18209,13 @@
         <v>0.06</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0606609168547876</v>
+        <v>0.0606385600916768</v>
       </c>
       <c r="H221" t="n">
         <v>0.145</v>
       </c>
       <c r="I221" t="n">
-        <v>0.131</v>
+        <v>0.13115</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
@@ -18226,7 +18226,7 @@
         <v>0.105</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1144</v>
+        <v>0.11437</v>
       </c>
       <c r="O221" t="n">
         <v>1797584</v>
@@ -18286,13 +18286,13 @@
         <v>0.06</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0606609168547876</v>
+        <v>0.0606385600916768</v>
       </c>
       <c r="H222" t="n">
         <v>0.145</v>
       </c>
       <c r="I222" t="n">
-        <v>0.131</v>
+        <v>0.13115</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -18303,7 +18303,7 @@
         <v>0.105</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1144</v>
+        <v>0.11437</v>
       </c>
       <c r="O222" t="n">
         <v>1797584</v>
@@ -18363,7 +18363,7 @@
         <v>0.12</v>
       </c>
       <c r="G223" t="n">
-        <v>0.137223478615826</v>
+        <v>0.137211793947665</v>
       </c>
       <c r="H223" t="n">
         <v>1.29</v>
@@ -18440,7 +18440,7 @@
         <v>0.12</v>
       </c>
       <c r="G224" t="n">
-        <v>0.137223478615826</v>
+        <v>0.137211793947665</v>
       </c>
       <c r="H224" t="n">
         <v>1.29</v>
@@ -18833,13 +18833,13 @@
         <v>3.9</v>
       </c>
       <c r="G229" t="n">
-        <v>3.83732167175729</v>
+        <v>3.78756006912251</v>
       </c>
       <c r="H229" t="n">
         <v>9.6</v>
       </c>
       <c r="I229" t="n">
-        <v>7.202</v>
+        <v>7.013</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18847,10 +18847,10 @@
         <v>4.16</v>
       </c>
       <c r="M229" t="n">
-        <v>5.343</v>
+        <v>5.1</v>
       </c>
       <c r="N229" t="n">
-        <v>6.982</v>
+        <v>6.643</v>
       </c>
       <c r="O229" t="n">
         <v>1797584</v>
@@ -18914,7 +18914,7 @@
         <v>0.008</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0083399737993401</v>
+        <v>0.0083399813508223</v>
       </c>
       <c r="H230" t="n">
         <v>0.013</v>
@@ -18995,7 +18995,7 @@
         <v>0.008</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0083399737993401</v>
+        <v>0.0083399813508223</v>
       </c>
       <c r="H231" t="n">
         <v>0.013</v>
@@ -19490,27 +19490,27 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0.00231</v>
+        <v>0.00227</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0051543305248735</v>
+        <v>0.0051256846964198</v>
       </c>
       <c r="H237" t="n">
         <v>0.110832196309537</v>
       </c>
       <c r="I237" t="n">
-        <v>0.00671</v>
+        <v>0.0067</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.00283</v>
+        <v>0.0028</v>
       </c>
       <c r="M237" t="n">
         <v>0.00509</v>
       </c>
       <c r="N237" t="n">
-        <v>0.00656</v>
+        <v>0.00659</v>
       </c>
       <c r="O237" t="n">
         <v>1797584</v>
@@ -19571,27 +19571,27 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.00231</v>
+        <v>0.00227</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0051543305248735</v>
+        <v>0.0051256846964198</v>
       </c>
       <c r="H238" t="n">
         <v>0.110832196309537</v>
       </c>
       <c r="I238" t="n">
-        <v>0.00671</v>
+        <v>0.0067</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>0.00283</v>
+        <v>0.0028</v>
       </c>
       <c r="M238" t="n">
         <v>0.00509</v>
       </c>
       <c r="N238" t="n">
-        <v>0.00656</v>
+        <v>0.00659</v>
       </c>
       <c r="O238" t="n">
         <v>1797584</v>
@@ -19655,7 +19655,7 @@
         <v>0.057</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0568141614573288</v>
+        <v>0.0568137458565934</v>
       </c>
       <c r="H239" t="n">
         <v>0.133</v>
@@ -19736,7 +19736,7 @@
         <v>0.057</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0568141614573288</v>
+        <v>0.0568137458565934</v>
       </c>
       <c r="H240" t="n">
         <v>0.133</v>
@@ -19890,7 +19890,7 @@
         <v>0.065</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0645753837045237</v>
+        <v>0.0645521697617365</v>
       </c>
       <c r="H242" t="n">
         <v>0.147</v>
@@ -19967,7 +19967,7 @@
         <v>0.065</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0645753837045237</v>
+        <v>0.0645521697617365</v>
       </c>
       <c r="H243" t="n">
         <v>0.147</v>
@@ -20044,7 +20044,7 @@
         <v>0.12</v>
       </c>
       <c r="G244" t="n">
-        <v>0.137871334185586</v>
+        <v>0.137859451472202</v>
       </c>
       <c r="H244" t="n">
         <v>1.29</v>
@@ -20121,7 +20121,7 @@
         <v>0.12</v>
       </c>
       <c r="G245" t="n">
-        <v>0.137871334185586</v>
+        <v>0.137859451472202</v>
       </c>
       <c r="H245" t="n">
         <v>1.29</v>
@@ -20514,13 +20514,13 @@
         <v>4.1</v>
       </c>
       <c r="G250" t="n">
-        <v>4.04754026362355</v>
+        <v>3.99863661965488</v>
       </c>
       <c r="H250" t="n">
         <v>10.1</v>
       </c>
       <c r="I250" t="n">
-        <v>7.188</v>
+        <v>7.012</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -20528,10 +20528,10 @@
         <v>4.2</v>
       </c>
       <c r="M250" t="n">
-        <v>5.7464</v>
+        <v>5.7256</v>
       </c>
       <c r="N250" t="n">
-        <v>6.958</v>
+        <v>6.686</v>
       </c>
       <c r="O250" t="n">
         <v>1797584</v>
@@ -20595,7 +20595,7 @@
         <v>0.008</v>
       </c>
       <c r="G251" t="n">
-        <v>0.008136583968831599</v>
+        <v>0.008136591520313799</v>
       </c>
       <c r="H251" t="n">
         <v>0.013</v>
@@ -20676,7 +20676,7 @@
         <v>0.008</v>
       </c>
       <c r="G252" t="n">
-        <v>0.008136583968831599</v>
+        <v>0.008136591520313799</v>
       </c>
       <c r="H252" t="n">
         <v>0.013</v>
@@ -20757,7 +20757,7 @@
         <v>34</v>
       </c>
       <c r="G253" t="n">
-        <v>77.17344797597551</v>
+        <v>77.1726722499108</v>
       </c>
       <c r="H253" t="n">
         <v>780</v>
@@ -20842,7 +20842,7 @@
         <v>34</v>
       </c>
       <c r="G254" t="n">
-        <v>77.17344797597551</v>
+        <v>77.1726722499108</v>
       </c>
       <c r="H254" t="n">
         <v>780</v>
@@ -20927,7 +20927,7 @@
         <v>34</v>
       </c>
       <c r="G255" t="n">
-        <v>77.17344797597551</v>
+        <v>77.1726722499108</v>
       </c>
       <c r="H255" t="n">
         <v>780</v>
@@ -21012,7 +21012,7 @@
         <v>34</v>
       </c>
       <c r="G256" t="n">
-        <v>77.17344797597551</v>
+        <v>77.1726722499108</v>
       </c>
       <c r="H256" t="n">
         <v>780</v>
@@ -21174,7 +21174,7 @@
         <v>0.00285</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0053597405715406</v>
+        <v>0.0053420246236133</v>
       </c>
       <c r="H258" t="n">
         <v>0.110832196309537</v>
@@ -21185,13 +21185,13 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
-        <v>0.00335</v>
+        <v>0.00331</v>
       </c>
       <c r="M258" t="n">
-        <v>0.00586</v>
+        <v>0.00588</v>
       </c>
       <c r="N258" t="n">
-        <v>0.00662</v>
+        <v>0.00665</v>
       </c>
       <c r="O258" t="n">
         <v>1797584</v>
@@ -21255,7 +21255,7 @@
         <v>0.00285</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0053597405715406</v>
+        <v>0.0053420246236133</v>
       </c>
       <c r="H259" t="n">
         <v>0.110832196309537</v>
@@ -21266,13 +21266,13 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>0.00335</v>
+        <v>0.00331</v>
       </c>
       <c r="M259" t="n">
-        <v>0.00586</v>
+        <v>0.00588</v>
       </c>
       <c r="N259" t="n">
-        <v>0.00662</v>
+        <v>0.00665</v>
       </c>
       <c r="O259" t="n">
         <v>1797584</v>
@@ -21336,7 +21336,7 @@
         <v>0.057</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0594498110721571</v>
+        <v>0.0594493935737486</v>
       </c>
       <c r="H260" t="n">
         <v>0.133</v>
@@ -21417,7 +21417,7 @@
         <v>0.057</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0594498110721571</v>
+        <v>0.0594493935737486</v>
       </c>
       <c r="H261" t="n">
         <v>0.133</v>
@@ -21571,7 +21571,7 @@
         <v>0.065</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0668922327940865</v>
+        <v>0.0668682916656243</v>
       </c>
       <c r="H263" t="n">
         <v>0.147</v>
@@ -21648,7 +21648,7 @@
         <v>0.065</v>
       </c>
       <c r="G264" t="n">
-        <v>0.0668922327940865</v>
+        <v>0.0668682916656243</v>
       </c>
       <c r="H264" t="n">
         <v>0.147</v>
@@ -22114,7 +22114,7 @@
         <v>1.75</v>
       </c>
       <c r="G270" t="n">
-        <v>3.18237557840611</v>
+        <v>3.18238238424897</v>
       </c>
       <c r="H270" t="n">
         <v>19.5</v>
@@ -22195,13 +22195,13 @@
         <v>4.2</v>
       </c>
       <c r="G271" t="n">
-        <v>4.44267882345756</v>
+        <v>4.3911077079997</v>
       </c>
       <c r="H271" t="n">
         <v>10.1</v>
       </c>
       <c r="I271" t="n">
-        <v>7.3355</v>
+        <v>7.23</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -22209,10 +22209,10 @@
         <v>4.2</v>
       </c>
       <c r="M271" t="n">
-        <v>5.9135</v>
+        <v>5.7725</v>
       </c>
       <c r="N271" t="n">
-        <v>7.048</v>
+        <v>7.002</v>
       </c>
       <c r="O271" t="n">
         <v>1797584</v>
@@ -22276,7 +22276,7 @@
         <v>0.008</v>
       </c>
       <c r="G272" t="n">
-        <v>0.0084474723957333</v>
+        <v>0.0084474803517592</v>
       </c>
       <c r="H272" t="n">
         <v>0.016</v>
@@ -22357,7 +22357,7 @@
         <v>0.008</v>
       </c>
       <c r="G273" t="n">
-        <v>0.0084474723957333</v>
+        <v>0.0084474803517592</v>
       </c>
       <c r="H273" t="n">
         <v>0.016</v>
@@ -22438,7 +22438,7 @@
         <v>38.5</v>
       </c>
       <c r="G274" t="n">
-        <v>65.39702554611701</v>
+        <v>65.3962082632988</v>
       </c>
       <c r="H274" t="n">
         <v>590</v>
@@ -22523,7 +22523,7 @@
         <v>38.5</v>
       </c>
       <c r="G275" t="n">
-        <v>65.39702554611701</v>
+        <v>65.3962082632988</v>
       </c>
       <c r="H275" t="n">
         <v>590</v>
@@ -22608,7 +22608,7 @@
         <v>38.5</v>
       </c>
       <c r="G276" t="n">
-        <v>65.39702554611701</v>
+        <v>65.3962082632988</v>
       </c>
       <c r="H276" t="n">
         <v>590</v>
@@ -22693,7 +22693,7 @@
         <v>38.5</v>
       </c>
       <c r="G277" t="n">
-        <v>65.39702554611701</v>
+        <v>65.3962082632988</v>
       </c>
       <c r="H277" t="n">
         <v>590</v>
@@ -22855,7 +22855,7 @@
         <v>0.00302</v>
       </c>
       <c r="G279" t="n">
-        <v>0.0054913533995152</v>
+        <v>0.0054833027570999</v>
       </c>
       <c r="H279" t="n">
         <v>0.110832196309537</v>
@@ -22866,13 +22866,13 @@
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>0.00355</v>
+        <v>0.00353</v>
       </c>
       <c r="M279" t="n">
-        <v>0.0059</v>
+        <v>0.00591</v>
       </c>
       <c r="N279" t="n">
-        <v>0.00664</v>
+        <v>0.00666</v>
       </c>
       <c r="O279" t="n">
         <v>1797584</v>
@@ -22936,7 +22936,7 @@
         <v>0.00302</v>
       </c>
       <c r="G280" t="n">
-        <v>0.0054913533995152</v>
+        <v>0.0054833027570999</v>
       </c>
       <c r="H280" t="n">
         <v>0.110832196309537</v>
@@ -22947,13 +22947,13 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
-        <v>0.00355</v>
+        <v>0.00353</v>
       </c>
       <c r="M280" t="n">
-        <v>0.0059</v>
+        <v>0.00591</v>
       </c>
       <c r="N280" t="n">
-        <v>0.00664</v>
+        <v>0.00666</v>
       </c>
       <c r="O280" t="n">
         <v>1797584</v>
@@ -23017,7 +23017,7 @@
         <v>0.0545</v>
       </c>
       <c r="G281" t="n">
-        <v>0.0593667652367369</v>
+        <v>0.0593663253723423</v>
       </c>
       <c r="H281" t="n">
         <v>0.132</v>
@@ -23098,7 +23098,7 @@
         <v>0.0545</v>
       </c>
       <c r="G282" t="n">
-        <v>0.0593667652367369</v>
+        <v>0.0593663253723423</v>
       </c>
       <c r="H282" t="n">
         <v>0.132</v>
@@ -23252,7 +23252,7 @@
         <v>0.06</v>
       </c>
       <c r="G284" t="n">
-        <v>0.06661860240805551</v>
+        <v>0.0665844501477113</v>
       </c>
       <c r="H284" t="n">
         <v>0.147</v>
@@ -23329,7 +23329,7 @@
         <v>0.06</v>
       </c>
       <c r="G285" t="n">
-        <v>0.06661860240805551</v>
+        <v>0.0665844501477113</v>
       </c>
       <c r="H285" t="n">
         <v>0.147</v>
@@ -23688,6 +23688,1687 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.6138</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.63475</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G291" t="n">
+        <v>4.27606659477529</v>
+      </c>
+      <c r="H291" t="n">
+        <v>29</v>
+      </c>
+      <c r="I291" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="M291" t="n">
+        <v>6</v>
+      </c>
+      <c r="N291" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G292" t="n">
+        <v>4.48218926946254</v>
+      </c>
+      <c r="H292" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>7.6949</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M292" t="n">
+        <v>5.849</v>
+      </c>
+      <c r="N292" t="n">
+        <v>6.87717</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0084107142857142</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.01098</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0084107142857142</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.01098</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>34</v>
+      </c>
+      <c r="G295" t="n">
+        <v>53.9319225490131</v>
+      </c>
+      <c r="H295" t="n">
+        <v>190</v>
+      </c>
+      <c r="I295" t="n">
+        <v>154</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>78</v>
+      </c>
+      <c r="M295" t="n">
+        <v>109.96</v>
+      </c>
+      <c r="N295" t="n">
+        <v>140</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>34</v>
+      </c>
+      <c r="G296" t="n">
+        <v>53.9319225490131</v>
+      </c>
+      <c r="H296" t="n">
+        <v>190</v>
+      </c>
+      <c r="I296" t="n">
+        <v>154</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>78</v>
+      </c>
+      <c r="M296" t="n">
+        <v>109.96</v>
+      </c>
+      <c r="N296" t="n">
+        <v>140</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>34</v>
+      </c>
+      <c r="G297" t="n">
+        <v>53.9319225490131</v>
+      </c>
+      <c r="H297" t="n">
+        <v>190</v>
+      </c>
+      <c r="I297" t="n">
+        <v>154</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>78</v>
+      </c>
+      <c r="M297" t="n">
+        <v>109.96</v>
+      </c>
+      <c r="N297" t="n">
+        <v>140</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>34</v>
+      </c>
+      <c r="G298" t="n">
+        <v>53.9319225490131</v>
+      </c>
+      <c r="H298" t="n">
+        <v>190</v>
+      </c>
+      <c r="I298" t="n">
+        <v>154</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>78</v>
+      </c>
+      <c r="M298" t="n">
+        <v>109.96</v>
+      </c>
+      <c r="N298" t="n">
+        <v>140</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>131</v>
+      </c>
+      <c r="G299" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="H299" t="n">
+        <v>144</v>
+      </c>
+      <c r="I299" t="n">
+        <v>144</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>131</v>
+      </c>
+      <c r="M299" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="N299" t="n">
+        <v>144</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.00237</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0049440493851865</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.110832196309537</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.00683</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0.00314</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.00587</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0.00237</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0049440493851865</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.110832196309537</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.00683</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>0.00314</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.00587</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0595091825151994</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.10098</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0595091825151994</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.10098</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="G304" t="n">
+        <v>7.5602</v>
+      </c>
+      <c r="H304" t="n">
+        <v>7.878</v>
+      </c>
+      <c r="I304" t="n">
+        <v>7.878</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="M304" t="n">
+        <v>7.7667</v>
+      </c>
+      <c r="N304" t="n">
+        <v>7.878</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P304" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06648623586199701</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.11302</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P305" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06648623586199701</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0.11302</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P306" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.108214285714286</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P307" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.108214285714286</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P308" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P309" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Ohau at Gladstone Reserve</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1797584</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5495986</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
+++ b/state_results/Rivers/OhauatGladstoneReserve_4d876944ae.xlsx
@@ -2287,13 +2287,13 @@
         <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>3.54549686875511</v>
+        <v>3.52123575363075</v>
       </c>
       <c r="H23" t="n">
-        <v>8.91131081363373</v>
+        <v>8.253208384725029</v>
       </c>
       <c r="I23" t="n">
-        <v>7.62696</v>
+        <v>7.5</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
         <v>6.21</v>
       </c>
       <c r="N23" t="n">
-        <v>7.07618</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>1797584</v>
@@ -3186,13 +3186,13 @@
         <v>3.885</v>
       </c>
       <c r="G34" t="n">
-        <v>4.08958079417684</v>
+        <v>4.03454099204697</v>
       </c>
       <c r="H34" t="n">
-        <v>12.4162929210405</v>
+        <v>11.569920541124</v>
       </c>
       <c r="I34" t="n">
-        <v>7.92539</v>
+        <v>7.9</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -3200,10 +3200,10 @@
         <v>3.77</v>
       </c>
       <c r="M34" t="n">
-        <v>6.762</v>
+        <v>6.72344</v>
       </c>
       <c r="N34" t="n">
-        <v>7.08633</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1797584</v>
@@ -4244,16 +4244,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G47" t="n">
-        <v>4.61783848366264</v>
+        <v>4.54927424743845</v>
       </c>
       <c r="H47" t="n">
-        <v>12.4162929210405</v>
+        <v>11.569920541124</v>
       </c>
       <c r="I47" t="n">
-        <v>10.6867</v>
+        <v>8.59074</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4264,7 +4264,7 @@
         <v>7</v>
       </c>
       <c r="N47" t="n">
-        <v>8.236940000000001</v>
+        <v>8.06583</v>
       </c>
       <c r="O47" t="n">
         <v>1797584</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>4.85540256119588</v>
+        <v>4.83851957941024</v>
       </c>
       <c r="H64" t="n">
-        <v>12.4162929210405</v>
+        <v>11.569920541124</v>
       </c>
       <c r="I64" t="n">
-        <v>10.6867</v>
+        <v>8.59074</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="N64" t="n">
-        <v>8.236940000000001</v>
+        <v>8.06583</v>
       </c>
       <c r="O64" t="n">
         <v>1797584</v>
@@ -7140,16 +7140,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5.34751</v>
+        <v>5.6</v>
       </c>
       <c r="G83" t="n">
-        <v>4.95828545317222</v>
+        <v>4.99514610890497</v>
       </c>
       <c r="H83" t="n">
-        <v>12.4162929210405</v>
+        <v>11.569920541124</v>
       </c>
       <c r="I83" t="n">
-        <v>9.900040000000001</v>
+        <v>8.500640000000001</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="N83" t="n">
-        <v>7.30067</v>
+        <v>7.31703</v>
       </c>
       <c r="O83" t="n">
         <v>1797584</v>
@@ -8744,27 +8744,27 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5.8</v>
+        <v>5.99582</v>
       </c>
       <c r="G103" t="n">
-        <v>5.3641026895203</v>
+        <v>5.40597775882793</v>
       </c>
       <c r="H103" t="n">
-        <v>12.4162929210405</v>
+        <v>11.569920541124</v>
       </c>
       <c r="I103" t="n">
-        <v>10.57309</v>
+        <v>10.02721</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>6.03851</v>
+        <v>6.025</v>
       </c>
       <c r="M103" t="n">
         <v>7</v>
       </c>
       <c r="N103" t="n">
-        <v>8.57873</v>
+        <v>8.6401</v>
       </c>
       <c r="O103" t="n">
         <v>1797584</v>
@@ -10425,27 +10425,27 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6.025</v>
+        <v>6.05</v>
       </c>
       <c r="G124" t="n">
-        <v>6.06967728244432</v>
+        <v>6.14954033722108</v>
       </c>
       <c r="H124" t="n">
-        <v>11.9015612168876</v>
+        <v>11.2</v>
       </c>
       <c r="I124" t="n">
-        <v>11.19</v>
+        <v>11.09</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>6.6</v>
+        <v>6.46376</v>
       </c>
       <c r="M124" t="n">
         <v>10.098</v>
       </c>
       <c r="N124" t="n">
-        <v>11.034</v>
+        <v>10.736</v>
       </c>
       <c r="O124" t="n">
         <v>1797584</v>
@@ -12109,7 +12109,7 @@
         <v>6</v>
       </c>
       <c r="G145" t="n">
-        <v>5.80433294804276</v>
+        <v>5.9008959609353</v>
       </c>
       <c r="H145" t="n">
         <v>11.2</v>
@@ -12120,10 +12120,10 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>6.47327</v>
+        <v>6.12618</v>
       </c>
       <c r="M145" t="n">
-        <v>9.47513</v>
+        <v>9.849</v>
       </c>
       <c r="N145" t="n">
         <v>10.484</v>
@@ -13790,7 +13790,7 @@
         <v>6</v>
       </c>
       <c r="G166" t="n">
-        <v>5.6370282330403</v>
+        <v>5.67988327563397</v>
       </c>
       <c r="H166" t="n">
         <v>11.2</v>
@@ -13804,7 +13804,7 @@
         <v>6</v>
       </c>
       <c r="M166" t="n">
-        <v>9.47513</v>
+        <v>9.849</v>
       </c>
       <c r="N166" t="n">
         <v>10.484</v>
@@ -15471,7 +15471,7 @@
         <v>5.1</v>
       </c>
       <c r="G187" t="n">
-        <v>5.43955629804595</v>
+        <v>5.4456563631692</v>
       </c>
       <c r="H187" t="n">
         <v>11.2</v>
@@ -15485,7 +15485,7 @@
         <v>5.9</v>
       </c>
       <c r="M187" t="n">
-        <v>9.225390000000001</v>
+        <v>9.747</v>
       </c>
       <c r="N187" t="n">
         <v>10.452</v>
@@ -17152,7 +17152,7 @@
         <v>4.455</v>
       </c>
       <c r="G208" t="n">
-        <v>4.8223379274997</v>
+        <v>4.8245923280346</v>
       </c>
       <c r="H208" t="n">
         <v>11.2</v>
@@ -18833,7 +18833,7 @@
         <v>3.9</v>
       </c>
       <c r="G229" t="n">
-        <v>3.78756006912251</v>
+        <v>3.78977491877083</v>
       </c>
       <c r="H229" t="n">
         <v>9.6</v>
@@ -20514,7 +20514,7 @@
         <v>4.1</v>
       </c>
       <c r="G250" t="n">
-        <v>3.99863661965488</v>
+        <v>4.0008132822403</v>
       </c>
       <c r="H250" t="n">
         <v>10.1</v>
@@ -22195,7 +22195,7 @@
         <v>4.2</v>
       </c>
       <c r="G271" t="n">
-        <v>4.3911077079997</v>
+        <v>4.39340309763523</v>
       </c>
       <c r="H271" t="n">
         <v>10.1</v>
@@ -23876,13 +23876,13 @@
         <v>4.2</v>
       </c>
       <c r="G292" t="n">
-        <v>4.48218926946254</v>
+        <v>4.54164421203312</v>
       </c>
       <c r="H292" t="n">
-        <v>10.1</v>
+        <v>10.8171432377552</v>
       </c>
       <c r="I292" t="n">
-        <v>7.6949</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
@@ -23893,7 +23893,7 @@
         <v>5.849</v>
       </c>
       <c r="N292" t="n">
-        <v>6.87717</v>
+        <v>6.886</v>
       </c>
       <c r="O292" t="n">
         <v>1797584</v>
